--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220514_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220514_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="253">
   <si>
     <t>사이트</t>
   </si>
@@ -725,9 +725,6 @@
   </si>
   <si>
     <t>EDAM</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>SOURCE MUSIC</t>
@@ -2147,7 +2144,7 @@
         <v>181</v>
       </c>
       <c r="G39" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H39" t="s">
         <v>232</v>
@@ -2199,7 +2196,7 @@
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H41" t="s">
         <v>232</v>
@@ -2251,7 +2248,7 @@
         <v>183</v>
       </c>
       <c r="G43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H43" t="s">
         <v>232</v>
@@ -2329,7 +2326,7 @@
         <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H46" t="s">
         <v>232</v>
@@ -2381,7 +2378,7 @@
         <v>185</v>
       </c>
       <c r="G48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H48" t="s">
         <v>232</v>
@@ -2459,7 +2456,7 @@
         <v>186</v>
       </c>
       <c r="G51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H51" t="s">
         <v>232</v>
@@ -2511,10 +2508,10 @@
         <v>188</v>
       </c>
       <c r="G53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2589,7 +2586,7 @@
         <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H56" t="s">
         <v>232</v>
@@ -2693,7 +2690,7 @@
         <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H60" t="s">
         <v>232</v>
@@ -2745,10 +2742,10 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2771,7 +2768,7 @@
         <v>192</v>
       </c>
       <c r="G63" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H63" t="s">
         <v>232</v>
@@ -2823,7 +2820,7 @@
         <v>194</v>
       </c>
       <c r="G65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H65" t="s">
         <v>232</v>
@@ -2901,7 +2898,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H68" t="s">
         <v>232</v>
@@ -3057,7 +3054,7 @@
         <v>201</v>
       </c>
       <c r="G74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H74" t="s">
         <v>232</v>
@@ -3161,7 +3158,7 @@
         <v>204</v>
       </c>
       <c r="G78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H78" t="s">
         <v>232</v>
@@ -3187,10 +3184,10 @@
         <v>205</v>
       </c>
       <c r="G79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3213,7 +3210,7 @@
         <v>206</v>
       </c>
       <c r="G80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H80" t="s">
         <v>232</v>
@@ -3265,7 +3262,7 @@
         <v>207</v>
       </c>
       <c r="G82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H82" t="s">
         <v>232</v>
@@ -3317,7 +3314,7 @@
         <v>209</v>
       </c>
       <c r="G84" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H84" t="s">
         <v>232</v>
@@ -3369,7 +3366,7 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H86" t="s">
         <v>232</v>
@@ -3395,7 +3392,7 @@
         <v>211</v>
       </c>
       <c r="G87" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H87" t="s">
         <v>232</v>
@@ -3447,7 +3444,7 @@
         <v>212</v>
       </c>
       <c r="G89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H89" t="s">
         <v>232</v>
@@ -3525,7 +3522,7 @@
         <v>214</v>
       </c>
       <c r="G92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H92" t="s">
         <v>232</v>
@@ -3655,7 +3652,7 @@
         <v>182</v>
       </c>
       <c r="G97" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H97" t="s">
         <v>232</v>
@@ -3733,7 +3730,7 @@
         <v>218</v>
       </c>
       <c r="G100" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H100" t="s">
         <v>232</v>
@@ -3759,7 +3756,7 @@
         <v>219</v>
       </c>
       <c r="G101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H101" t="s">
         <v>232</v>
